--- a/arquivoTeste.xlsx
+++ b/arquivoTeste.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,6 +34,9 @@
       <color rgb="FFFF0000"/>
       <sz val="14"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -62,10 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +457,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
